--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_plv_by_LDMI.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_plv_by_LDMI.xlsx
@@ -13,6 +13,9 @@
     <sheet name="selection_rate_0.4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="selection_rate_0.3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="selection_rate_0.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="selection_rate_0.2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="selection_rate_0.15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="selection_rate_0.1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2522,4 +2525,1054 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2974075081564175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8942759648362998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87.84678068149378</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3208816830418073</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8784678068149379</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8772527488228758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.64896755162242</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.244231378530579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9064896755162242</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9064006511109438</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.72421906763898</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6934773787545661</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7972421906763899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7818617420164836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.26843657817109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4865504333827023</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8126843657817109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7997818951901202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.76401179941003</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2838644503227746</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8976401179941004</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.898092492358769</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.84070796460176</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3773832840534548</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8562661100331533</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.67273938355868</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2868992797414345</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8867273938355869</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8861666273279327</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4051476878773731</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8392205253428739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.6788121004507</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2572514251676087</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9067881210045069</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9070118585002038</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.13135061721987</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6047327838741088</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8413135061721988</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8328221507959188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.59914013096999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6281952638489504</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8059914013097</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7924744031854051</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1315674522697615</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9582565438310009</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.98230088495575</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1524827091943128</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9398230088495575</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9401287262377789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.33645619771798</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1958279024872657</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9433645619771797</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9409909489564094</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.86635985893764</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3577267080468746</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8786635985893766</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8740668925697446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.25212155814498</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3827772164562097</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8525212155814497</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8507346757115627</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.72146817879047</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4660748311939339</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8172146817879048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.815172137521359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.28925855759999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3299731204868294</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8828925855759998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8827392478568197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.30894730923278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7472821799262117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7430894730923278</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7298347055316959</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>76.94841650879333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5619124123205741</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7694841650879333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7687778389368122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.38000328722566</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3136801529908553</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8838000328722566</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8834347828416289</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.14930925008001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.472919978822271</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8014930925008003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7985399233029472</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.53426932758934</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4763900225361188</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8153426932758935</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8098139642765336</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.65288627064248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6817382004112005</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7365288627064248</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.731953292435638</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.08589174646839</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2956055307275771</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.890858917464684</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8906384244244927</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.58198600333913</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6704473384966453</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7758198600333912</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7624171674357778</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.07721520082353</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6857883086583266</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7607721520082353</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7448032317455103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.156333532297</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2365719358397958</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9215633353229699</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9222818043184791</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.35988200589971</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2086283182298454</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9235988200589971</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9241554536593158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.54345625827213</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2000577133871654</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9354345625827213</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9341192155084042</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.40276299967992</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4486564840322373</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8340276299967991</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8299610577004651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74.29458732341975</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.659919751683871</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7429458732341976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7389121569324636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.91817403264733</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7153750633200009</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7091817403264734</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7063090628751444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.27065113020009</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5757438672706485</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7727065113020009</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7649942051126939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>64.80056055848235</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8529886501530808</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6480056055848233</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6424666852093196</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.7241931158574</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9977768818537396</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.567241931158574</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5644121622780666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>69.61608664434814</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7678145696719487</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6961608664434813</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.693197561657253</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>66.99781139975259</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7459073921044668</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6699781139975259</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6658307483565006</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.07958546354207</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7294766746461392</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7007958546354207</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6973056792033339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>58.61227173245443</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.004599413275719</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5861227173245444</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5746172516619057</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.63260062803312</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5483417266358932</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7863260062803311</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7801200435994923</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64.39138746874973</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9496643335868915</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6439138746874973</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6322408332246291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.5921677523162</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9015458708008131</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.645921677523162</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6308981018939986</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.09504407477573</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6033696917196114</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7709504407477573</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7701306131527221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.61266100917828</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3811300976822773</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8361266100917828</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8370654276509921</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>76.18162786875318</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.604077972471714</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7618162786875319</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7586365866503517</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>70.25462734683403</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.735848797125121</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7025462734683402</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6971424746305911</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>